--- a/main_figures.xlsx
+++ b/main_figures.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/max/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxgross\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-28540" yWindow="800" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-28545" yWindow="795" windowWidth="25605" windowHeight="16005" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Summer Youth Employment" sheetId="1" r:id="rId1"/>
     <sheet name="Child Maltreatment" sheetId="2" r:id="rId2"/>
+    <sheet name="Deanza" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
+      <x14:workbookPr defaultImageDpi="330"/>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>Participated</t>
   </si>
@@ -51,11 +52,32 @@
   <si>
     <t>All Students</t>
   </si>
+  <si>
+    <t>asian</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>urm</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>transfer2</t>
+  </si>
+  <si>
+    <t>transfer4</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -107,12 +129,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -155,8 +180,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0764075777656506"/>
-          <c:y val="0.0267853645160027"/>
+          <c:x val="7.6407577765650603E-2"/>
+          <c:y val="2.6785364516002701E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -204,7 +229,8 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Applied but did_x000d_ not Participate</c:v>
+                  <c:v>Applied but did
+ not Participate</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -259,7 +285,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -307,6 +332,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BC5D-427D-90A4-BDCBC119EC62}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -337,8 +367,8 @@
               <c:idx val="0"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.00126742712294038"/>
-                  <c:y val="0.0126903553299492"/>
+                  <c:x val="1.2674271229403801E-3"/>
+                  <c:y val="1.26903553299492E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:dLblPos val="outEnd"/>
@@ -349,8 +379,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-BC5D-427D-90A4-BDCBC119EC62}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -393,7 +424,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -441,6 +471,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-BC5D-427D-90A4-BDCBC119EC62}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:dLblPos val="outEnd"/>
@@ -580,8 +615,8 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.15252046464489"/>
-          <c:y val="0.821718180749794"/>
-          <c:w val="0.77416689405161"/>
+          <c:y val="0.82171818074979397"/>
+          <c:w val="0.77416689405160999"/>
           <c:h val="0.158381321737768"/>
         </c:manualLayout>
       </c:layout>
@@ -647,7 +682,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -742,6 +777,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E828-46CB-8449-703CF56B7F18}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -757,6 +797,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E828-46CB-8449-703CF56B7F18}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -764,7 +809,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="0.1"/>
-                  <c:y val="0.0648148148148146"/>
+                  <c:y val="6.4814814814814603E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -777,6 +822,9 @@
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
                 </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-E828-46CB-8449-703CF56B7F18}"/>
+                </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -784,7 +832,7 @@
               <c:layout>
                 <c:manualLayout>
                   <c:x val="-0.102777777777778"/>
-                  <c:y val="-0.0833333333333333"/>
+                  <c:y val="-8.3333333333333301E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showLegendKey val="0"/>
@@ -796,6 +844,9 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:layout/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-E828-46CB-8449-703CF56B7F18}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -836,9 +887,7 @@
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -862,14 +911,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>82.0</c:v>
+                  <c:v>82</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-E828-46CB-8449-703CF56B7F18}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2369,12 +2423,12 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.1640625" customWidth="1"/>
+    <col min="2" max="2" width="26.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
@@ -2382,7 +2436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2393,7 +2447,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2414,19 +2468,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2434,7 +2488,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -2449,4 +2503,243 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="D2">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0.03</v>
+      </c>
+      <c r="D3">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="D4">
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0.01</v>
+      </c>
+      <c r="D5">
+        <v>5.5E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>2E-3</v>
+      </c>
+      <c r="D6">
+        <v>5.3999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>-1.7999999999999999E-2</v>
+      </c>
+      <c r="D7">
+        <v>-1.6E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>2.7E-2</v>
+      </c>
+      <c r="D8">
+        <v>-3.1E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="D9">
+        <v>-4.1000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>-0.02</v>
+      </c>
+      <c r="D10">
+        <v>-1.4E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>-0.04</v>
+      </c>
+      <c r="D11">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="D12">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D13">
+        <v>-1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="D14">
+        <v>-0.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="D15">
+        <v>-3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="D16">
+        <v>-4.5999999999999999E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>